--- a/012023_output.xlsx
+++ b/012023_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itacl\contratacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFFBDB8-8C2E-4D87-BA94-D0343AEC305D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902CC888-9581-4C29-8400-E213C4A10271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2908,8 +2908,8 @@
   <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
